--- a/заказы/статистика филиалы/2023/11,23/09,11,23 ЗПФ/дв 09,11,23 мррсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/09,11,23 ЗПФ/дв 09,11,23 мррсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\09,11,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\09,11,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4490A7-7301-4834-B0EB-3F8BB2D0E193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467CCD50-6953-4586-B0F9-ADD422F509A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,12 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$Z$40</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2332,6 +2333,329 @@
           </cell>
           <cell r="X42">
             <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TDSheet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Период: 09.11.2023 - 16.11.2023</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Номенклатура</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Ед. изм.</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Номенклатура</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>Ед. изм.</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Готовые чебупели с ветчиной и сыром Горячая штучка 0,3кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Готовые чебупели сочные с мясом ТМ Горячая штучка  0,3кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Жар-ладушки с клубникой и вишней. Жареные с начинкой.ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>ЖАР-мени ТМ Зареченские ТС Зареченские продукты.   Поком</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Круггетсы сочные ТМ Горячая штучка ТС Круггетсы 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Мини-сосиски в тесте "Фрайпики" 1,8кг ВЕС,  ПОКОМ</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Мини-сосиски в тесте "Фрайпики" 3,7кг ВЕС,  ПОКОМ</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Мини-сосиски в тесте "Фрайпики" 3,7кг ВЕС, ТМ Зареченские  ПОКОМ</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Наггетсы Нагетосы Сочная курочка ТМ Горячая штучка 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Наггетсы с индейкой 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки НД2 замор.  ПОКОМ</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Наггетсы хрустящие п/ф ВЕС ПОКОМ</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Наггетсы Хрустящие ТМ Зареченские ТС Зареченские продукты. Поком</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Пельмени Grandmeni со сливочным маслом Горячая штучка 0,75 кг ПОКОМ</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Пельмени Бигбули с мясом, Горячая штучка 0,9кг  ПОКОМ</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Пельмени Бульмени с говядиной и свининой Горячая шт. 0,9 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Пельмени Бульмени с говядиной и свининой Горячая штучка 0,43  ПОКОМ</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Пельмени Бульмени с говядиной и свининой Наваристые Горячая штучка ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Пельмени Бульмени со сливочным маслом ТМ Горячая шт. 0,43 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Пельмени Мясорубские ТМ Стародворье фоу-пак равиоли 0,7 кг.  Поком</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Пельмени Отборные из свинины и говядины 0,9 кг ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Пельмени Отборные с говядиной 0,9 кг НОВА ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Пельмени С говядиной и свининой, ВЕС, ТМ Славница сфера пуговки  ПОКОМ</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Пельмени Со свининой и говядиной ТМ Особый рецепт Любимая ложка 1,0 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Сосиски Оригинальные заморож. ТМ Стародворье в вак 0,33 кг  Поком</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Фрай-пицца с ветчиной и грибами 3,0 кг. ВЕС.  ПОКОМ</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Хотстеры ТМ Горячая штучка ТС Хотстеры 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Хрустящие крылышки. В панировке куриные жареные.ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Чебупай сочное яблоко ТМ Горячая штучка ТС Чебупай 0,2 кг УВС.  зам  ПОКОМ</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Чебупай спелая вишня ТМ Горячая штучка ТС Чебупай 0,2 кг УВС. зам  ПОКОМ</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Чебупицца курочка по-итальянски Горячая штучка 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Чебупицца Пепперони ТМ Горячая штучка ТС Чебупицца 0.25кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Чебуреки Мясные вес 2,7 кг Кулинарные изделия мясосодержащие рубленые в тесте жарен  ПОКОМ</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Чебуреки сочные ТМ Зареченские ТС Зареченские продукты.  Поком</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>БОНУС_Готовые чебупели сочные с мясом ТМ Горячая штучка  0,3кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>БОНУС_Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>шт</v>
           </cell>
         </row>
       </sheetData>
@@ -2665,10 +2989,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -2692,15 +3016,15 @@
     <col min="26" max="16384" width="10.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2770,7 +3094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -2816,7 +3140,7 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -2891,7 +3215,7 @@
         <v>2901.6000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
@@ -2962,8 +3286,12 @@
         <f>Y6*X6*H6</f>
         <v>61.199999999999996</v>
       </c>
+      <c r="AB6" s="8" t="str">
+        <f>VLOOKUP(A6,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -3033,8 +3361,12 @@
         <f t="shared" ref="Z7:Z40" si="5">Y7*X7*H7</f>
         <v>108</v>
       </c>
+      <c r="AB7" s="8" t="str">
+        <f>VLOOKUP(A7,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -3091,15 +3423,19 @@
         <v>3.7</v>
       </c>
       <c r="Y8" s="21">
-        <f t="shared" ref="Y7:Y40" si="6">N8/X8</f>
+        <f t="shared" ref="Y8:Y39" si="6">N8/X8</f>
         <v>0</v>
       </c>
       <c r="Z8" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AB8" s="8" t="str">
+        <f>VLOOKUP(A8,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -3166,8 +3502,12 @@
         <f t="shared" si="5"/>
         <v>203.5</v>
       </c>
+      <c r="AB9" s="8" t="str">
+        <f>VLOOKUP(A9,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
@@ -3234,8 +3574,12 @@
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
+      <c r="AB10" s="8" t="str">
+        <f>VLOOKUP(A10,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
@@ -3303,8 +3647,12 @@
         <f t="shared" si="5"/>
         <v>75.600000000000009</v>
       </c>
+      <c r="AB11" s="8" t="str">
+        <f>VLOOKUP(A11,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>17</v>
       </c>
@@ -3369,8 +3717,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AB12" s="8" t="str">
+        <f>VLOOKUP(A12,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
@@ -3436,8 +3788,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AB13" s="8" t="str">
+        <f>VLOOKUP(A13,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
@@ -3508,8 +3864,12 @@
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
+      <c r="AB14" s="8" t="str">
+        <f>VLOOKUP(A14,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
@@ -3577,8 +3937,12 @@
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
+      <c r="AB15" s="8" t="str">
+        <f>VLOOKUP(A15,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>21</v>
       </c>
@@ -3642,8 +4006,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AB16" s="8" t="str">
+        <f>VLOOKUP(A16,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
@@ -3700,8 +4068,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AB17" s="8" t="str">
+        <f>VLOOKUP(A17,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>23</v>
       </c>
@@ -3763,8 +4135,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AB18" s="8" t="str">
+        <f>VLOOKUP(A18,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -3831,8 +4207,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AB19" s="8" t="str">
+        <f>VLOOKUP(A19,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
@@ -3900,8 +4280,12 @@
         <f t="shared" si="5"/>
         <v>288</v>
       </c>
+      <c r="AB20" s="8" t="str">
+        <f>VLOOKUP(A20,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>26</v>
       </c>
@@ -3967,8 +4351,12 @@
         <f t="shared" si="5"/>
         <v>48.16</v>
       </c>
+      <c r="AB21" s="8" t="str">
+        <f>VLOOKUP(A21,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>27</v>
       </c>
@@ -4035,8 +4423,12 @@
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
+      <c r="AB22" s="8" t="str">
+        <f>VLOOKUP(A22,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>28</v>
       </c>
@@ -4107,8 +4499,12 @@
         <f t="shared" si="5"/>
         <v>561.6</v>
       </c>
+      <c r="AB23" s="8" t="str">
+        <f>VLOOKUP(A23,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
@@ -4174,8 +4570,12 @@
         <f t="shared" si="5"/>
         <v>55.04</v>
       </c>
+      <c r="AB24" s="8" t="str">
+        <f>VLOOKUP(A24,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>30</v>
       </c>
@@ -4245,8 +4645,12 @@
         <f t="shared" si="5"/>
         <v>16.799999999999997</v>
       </c>
+      <c r="AB25" s="8" t="str">
+        <f>VLOOKUP(A25,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>31</v>
       </c>
@@ -4314,8 +4718,12 @@
         <f t="shared" si="5"/>
         <v>28.8</v>
       </c>
+      <c r="AB26" s="8" t="str">
+        <f>VLOOKUP(A26,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>32</v>
       </c>
@@ -4379,8 +4787,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AB27" s="8" t="str">
+        <f>VLOOKUP(A27,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="28" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>33</v>
       </c>
@@ -4447,8 +4859,12 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
+      <c r="AB28" s="8" t="str">
+        <f>VLOOKUP(A28,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="29" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>34</v>
       </c>
@@ -4514,8 +4930,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AB29" s="8" t="str">
+        <f>VLOOKUP(A29,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>35</v>
       </c>
@@ -4577,8 +4997,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AB30" s="8" t="str">
+        <f>VLOOKUP(A30,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="31" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>36</v>
       </c>
@@ -4642,8 +5066,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AB31" s="8" t="str">
+        <f>VLOOKUP(A31,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="32" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>37</v>
       </c>
@@ -4711,8 +5139,12 @@
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
+      <c r="AB32" s="8" t="str">
+        <f>VLOOKUP(A32,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="33" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>38</v>
       </c>
@@ -4774,8 +5206,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AB33" s="8" t="str">
+        <f>VLOOKUP(A33,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="34" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>39</v>
       </c>
@@ -4841,8 +5277,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AB34" s="8" t="str">
+        <f>VLOOKUP(A34,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="35" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>40</v>
       </c>
@@ -4908,8 +5348,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AB35" s="8" t="str">
+        <f>VLOOKUP(A35,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="36" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>41</v>
       </c>
@@ -4981,8 +5425,12 @@
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
+      <c r="AB36" s="8" t="str">
+        <f>VLOOKUP(A36,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="37" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>42</v>
       </c>
@@ -5053,8 +5501,12 @@
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
+      <c r="AB37" s="8" t="str">
+        <f>VLOOKUP(A37,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="38" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>63</v>
       </c>
@@ -5113,8 +5565,12 @@
         <f t="shared" si="5"/>
         <v>99.9</v>
       </c>
+      <c r="AB38" s="8" t="str">
+        <f>VLOOKUP(A38,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="39" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>43</v>
       </c>
@@ -5180,8 +5636,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AB39" s="8" t="str">
+        <f>VLOOKUP(A39,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="40" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>8</v>
       </c>
@@ -5239,6 +5699,10 @@
       <c r="Z40" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="AB40" s="8" t="str">
+        <f>VLOOKUP(A40,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
       </c>
     </row>
   </sheetData>
